--- a/biology/Botanique/Heterotheca/Heterotheca.xlsx
+++ b/biology/Botanique/Heterotheca/Heterotheca.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heterotheca est un genre de plantes à fleurs de la famille des Astéracées.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (6 décembre 2022)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (6 décembre 2022) :
 Heterotheca barbata (Rydb.) Semple
 Heterotheca camporum (Greene) Shinners
 Heterotheca canescens (DC.) Shinners
@@ -532,7 +546,7 @@
 Heterotheca villosa (Pursh) Shinners
 Heterotheca viscida (Gray) Harms
 Heterotheca zionensis Semple
-Selon ITIS      (6 décembre 2022)[2] :
+Selon ITIS      (6 décembre 2022) :
 Heterotheca barbata (Rydb.) Semple
 Heterotheca camporum (Greene) Shinners
 Heterotheca canescens (DC.) Shinners
@@ -553,7 +567,7 @@
 Heterotheca villosa (Pursh) Shinners
 Heterotheca viscida (A. Gray) V.L. Harms
 Heterotheca zionensis Semple
-Selon NCBI  (6 décembre 2022)[3] :
+Selon NCBI  (6 décembre 2022) :
 Heterotheca bolanderi Chrysopsis bolanderi A.Gray, 1865
 Heterotheca canescens Haplopappus canescens DC., 1836
 Heterotheca chrysopsidis DC., 1836
@@ -565,7 +579,7 @@
 Heterotheca stenophylla (A.Gray) Shinners
 Heterotheca subaxillaris (Lam.) Britton &amp; Rusby
 Heterotheca villosa Chrysopsis villosa (Pursh) Nutt. ex DC.
-Selon The Plant List            (6 décembre 2022)[4] :
+Selon The Plant List            (6 décembre 2022) :
 Heterotheca barbata (Rydb.) Semple
 Heterotheca brandegei (B.L.Rob. &amp; Greenm.) Semple
 Heterotheca camporum (Greene) Shinners
@@ -591,7 +605,7 @@
 Heterotheca villosa (Pursh) Shinners
 Heterotheca viscida (A.Gray) V.L.Harms
 Heterotheca zionensis Semple
-Selon Tropicos                                           (6 décembre 2022)[5] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (6 décembre 2022) (Attention liste brute contenant possiblement des synonymes) :
 Heterotheca adenolepis (Fernald) H.E. Ahles
 Heterotheca angustifolia Shinners
 Heterotheca arizonica (Semple) G.L. Nesom
